--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -43,15 +43,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,14 +65,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -368,46 +390,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44839</v>
       </c>
       <c r="B2" s="2">
+        <f>D2-C2</f>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="I2" s="2">
-        <f>C2-B2</f>
-        <v>-0.67708333333333337</v>
-      </c>
+      <c r="D2" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B3" s="2">
+        <f>D3-C3</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B4" s="2">
+        <f>D4-C4</f>
+        <v>-0.63750000000000007</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -16,15 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Дата</t>
-  </si>
-  <si>
-    <t>Начало 1</t>
-  </si>
-  <si>
-    <t>Окончание 1</t>
   </si>
   <si>
     <t>Итого время</t>
@@ -34,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,8 +36,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -53,6 +56,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -84,11 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -390,175 +408,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44839</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <f>D2-C2</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44840</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <f>D3-C3</f>
         <v>2.3611111111111138E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.78055555555555556</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.8041666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44841</v>
       </c>
-      <c r="B4" s="2">
-        <f>D4-C4</f>
-        <v>-0.63750000000000007</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="6">
+        <f>(D4-C4)+(F4-E4)+(H4-G4)</f>
+        <v>0.10833333333333328</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.63750000000000007</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44842</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44843</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44844</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44845</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44846</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44847</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44848</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44849</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44850</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44851</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44852</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44853</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -46,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +71,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -107,6 +116,11 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,17 +425,17 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44839</v>
       </c>
@@ -466,7 +480,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44840</v>
       </c>
@@ -485,7 +499,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44841</v>
       </c>
@@ -512,149 +526,249 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>44842</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>44843</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44844</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <f>D7-C7+F7-E7</f>
+        <v>0.21180555555555558</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <f t="shared" ref="H7:H16" si="0">G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44845</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <f>D8-C8+F8-E8</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44846</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9:D16" si="1">C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44847</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F16" si="2">E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44848</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44849</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44850</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44851</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44852</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44853</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -668,7 +782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -680,7 +794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="B8" s="6">
         <f>D8-C8+F8-E8</f>
-        <v>5.555555555555558E-2</v>
+        <v>0.12500000000000011</v>
       </c>
       <c r="C8" s="11">
         <v>0.40277777777777773</v>
@@ -594,7 +594,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="F8" s="11">
-        <v>0.68055555555555547</v>
+        <v>0.75</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -606,16 +606,21 @@
       <c r="A9" s="1">
         <v>44846</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="6">
+        <f>D9-C9+F9-E9+H9-G9</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.5</v>
+      </c>
       <c r="D9" s="11">
-        <f t="shared" ref="D9:D16" si="1">C9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F9" s="11">
-        <f>E9</f>
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11">
@@ -627,16 +632,22 @@
       <c r="A10" s="1">
         <v>44847</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="6">
+        <f t="shared" ref="B10:B16" si="1">D10-C10+F10-E10+H10-G10</f>
+        <v>0.10138888888888886</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.41319444444444442</v>
+      </c>
       <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.62291666666666667</v>
+      </c>
       <c r="F10" s="11">
         <f t="shared" ref="F10:F16" si="2">E10</f>
-        <v>0</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -648,10 +659,13 @@
       <c r="A11" s="1">
         <v>44848</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D11:D16" si="3">C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="11"/>
@@ -669,10 +683,13 @@
       <c r="A12" s="1">
         <v>44849</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -690,10 +707,13 @@
       <c r="A13" s="1">
         <v>44850</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
@@ -711,10 +731,13 @@
       <c r="A14" s="1">
         <v>44851</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="11"/>
@@ -732,10 +755,13 @@
       <c r="A15" s="1">
         <v>44852</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
@@ -753,10 +779,13 @@
       <c r="A16" s="1">
         <v>44853</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="11"/>

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +77,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -116,11 +128,12 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,9 +473,15 @@
       <c r="H1" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="I1" s="2">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>44839</v>
       </c>
       <c r="B2" s="6">
@@ -479,9 +498,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>44840</v>
       </c>
       <c r="B3" s="6">
@@ -498,9 +519,11 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>44841</v>
       </c>
       <c r="B4" s="6">
@@ -525,277 +548,809 @@
       <c r="H4" s="4">
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="I4" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>44842</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>44843</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>44844</v>
       </c>
       <c r="B7" s="6">
         <f>D7-C7+F7-E7</f>
         <v>0.21180555555555558</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.51666666666666672</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.52847222222222223</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
         <f t="shared" ref="H7:H16" si="0">G7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J16" si="1">I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>44845</v>
       </c>
       <c r="B8" s="6">
         <f>D8-C8+F8-E8</f>
         <v>0.12500000000000011</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.75</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>44846</v>
       </c>
       <c r="B9" s="6">
         <f>D9-C9+F9-E9+H9-G9</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>44847</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" ref="B10:B16" si="1">D10-C10+F10-E10+H10-G10</f>
-        <v>0.10138888888888886</v>
-      </c>
-      <c r="C10" s="11">
+        <f t="shared" ref="B10:B16" si="2">D10-C10+F10-E10+H10-G10</f>
+        <v>0.20624999999999993</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.41319444444444442</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.51458333333333328</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.62291666666666667</v>
       </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:F16" si="2">E10</f>
-        <v>0.62291666666666667</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="F10" s="10">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>44848</v>
       </c>
       <c r="B11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <f t="shared" ref="D11:D16" si="3">C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F16" si="4">E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:D16" si="3">C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>44849</v>
+      </c>
+      <c r="B12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+        <v>8.6805555555555525E-2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="4"/>
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>44849</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>44850</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>44851</v>
+      </c>
+      <c r="B14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>44852</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="3"/>
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>44850</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>44851</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>44852</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
+        <f t="shared" ref="J15:J32" si="5">I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44853</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" ref="B17:B32" si="6">D17-C17+F17-E17+H17-G17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <f t="shared" ref="D17:D32" si="7">C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F32" si="8">E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f t="shared" ref="H17:H32" si="9">G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10">
-        <f t="shared" ref="J7:J16" si="1">I7</f>
+        <f t="shared" ref="J7:J13" si="1">I7</f>
         <v>0</v>
       </c>
     </row>
@@ -836,24 +836,25 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25277777777777788</v>
       </c>
       <c r="C15" s="10">
         <v>0.39374999999999999</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="3"/>
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="F15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10"/>
+        <v>0.6875</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="H15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10">
@@ -1355,8 +1356,41 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB244D9C-DAF3-4589-AF8C-774BBA6AF88B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB244D9C-DAF3-4589-AF8C-774BBA6AF88B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Дата</t>
   </si>
   <si>
     <t>Итого время</t>
+  </si>
+  <si>
+    <t>lesson01 практика</t>
   </si>
 </sst>
 </file>
@@ -49,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +95,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -120,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -134,6 +143,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,20 +448,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="105.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,29 +479,29 @@
       <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="13">
         <v>1</v>
       </c>
       <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="13">
         <v>2</v>
       </c>
       <c r="G1" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="13">
         <v>3</v>
       </c>
       <c r="I1" s="2">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J1" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>44839</v>
       </c>
@@ -491,17 +512,17 @@
       <c r="C2" s="4">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="14">
         <v>0.79166666666666663</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>44840</v>
       </c>
@@ -512,17 +533,17 @@
       <c r="C3" s="4">
         <v>0.78055555555555556</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="14">
         <v>0.8041666666666667</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>44841</v>
       </c>
@@ -533,29 +554,29 @@
       <c r="C4" s="4">
         <v>0.63750000000000007</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="14">
         <v>0.71111111111111114</v>
       </c>
       <c r="E4" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="14">
         <v>0.76388888888888884</v>
       </c>
       <c r="G4" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="14">
         <v>0.77777777777777779</v>
       </c>
       <c r="I4" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="14">
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44842</v>
       </c>
@@ -569,7 +590,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>44843</v>
       </c>
@@ -583,7 +604,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>44844</v>
       </c>
@@ -594,27 +615,27 @@
       <c r="C7" s="10">
         <v>0.42222222222222222</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="15">
         <v>0.51666666666666672</v>
       </c>
       <c r="E7" s="10">
         <v>0.52847222222222223</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="15">
         <v>0.64583333333333337</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10">
-        <f t="shared" ref="H7:H16" si="0">G7</f>
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:H13" si="0">G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="10">
+      <c r="J7" s="15">
         <f t="shared" ref="J7:J13" si="1">I7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>44845</v>
       </c>
@@ -625,27 +646,27 @@
       <c r="C8" s="10">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="15">
         <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="15">
         <v>0.75</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>44846</v>
       </c>
@@ -656,27 +677,27 @@
       <c r="C9" s="10">
         <v>0.5</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="15">
         <v>0.54166666666666663</v>
       </c>
       <c r="E9" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="15">
         <v>0.70833333333333337</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>44847</v>
       </c>
@@ -687,27 +708,27 @@
       <c r="C10" s="10">
         <v>0.41319444444444442</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="15">
         <v>0.51458333333333328</v>
       </c>
       <c r="E10" s="10">
         <v>0.62291666666666667</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="15">
         <v>0.72777777777777775</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>44848</v>
       </c>
@@ -716,27 +737,27 @@
         <v>0</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
-        <f t="shared" ref="D11:D16" si="3">C11</f>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:D13" si="3">C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <f t="shared" ref="F11:F16" si="4">E11</f>
+      <c r="F11" s="15">
+        <f t="shared" ref="F11:F13" si="4">E11</f>
         <v>0</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>44849</v>
       </c>
@@ -747,28 +768,28 @@
       <c r="C12" s="10">
         <v>0.3298611111111111</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="15">
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="10">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="15">
         <f t="shared" si="4"/>
         <v>0.4826388888888889</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="10">
+      <c r="J12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>44850</v>
       </c>
@@ -777,27 +798,27 @@
         <v>0</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10">
+      <c r="D13" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="F13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10">
+      <c r="H13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="10">
+      <c r="J13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44851</v>
       </c>
@@ -808,29 +829,32 @@
       <c r="C14" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="15">
         <v>0.45</v>
       </c>
       <c r="E14" s="10">
         <v>0.45</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="15">
         <v>0.6118055555555556</v>
       </c>
       <c r="G14" s="10">
         <v>0.61041666666666672</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="15">
         <v>0.62361111111111112</v>
       </c>
       <c r="I14" s="10">
         <v>0.75694444444444453</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="15">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44852</v>
       </c>
@@ -841,54 +865,63 @@
       <c r="C15" s="10">
         <v>0.39374999999999999</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="15">
         <v>0.51041666666666663</v>
       </c>
       <c r="E15" s="10">
         <v>0.59305555555555556</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="15">
         <v>0.6875</v>
       </c>
       <c r="G15" s="10">
         <v>0.71527777777777779</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="15">
         <v>0.75694444444444453</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="10">
+      <c r="J15" s="15">
         <f t="shared" ref="J15:J32" si="5">I15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44853</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.68125000000000002</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="10">
+      <c r="J16" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -897,25 +930,26 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" ref="B17:B32" si="6">D17-C17+F17-E17+H17-G17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10">
-        <f t="shared" ref="D17:D32" si="7">C17</f>
-        <v>0</v>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.61388888888888882</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10">
-        <f t="shared" ref="F17:F32" si="8">E17</f>
+      <c r="F17" s="15">
+        <f t="shared" ref="F17:F32" si="7">E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f t="shared" ref="H17:H32" si="9">G17</f>
+      <c r="H17" s="15">
+        <f t="shared" ref="H17:H32" si="8">G17</f>
         <v>0</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="10">
+      <c r="J17" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -929,22 +963,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10">
+      <c r="D18" s="15">
+        <f t="shared" ref="D17:D32" si="9">C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="G18" s="10"/>
+      <c r="H18" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="10">
+      <c r="J18" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -958,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10">
+      <c r="D19" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
+      <c r="G19" s="10"/>
+      <c r="H19" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="10">
+      <c r="J19" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -987,22 +1021,22 @@
         <v>0</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10">
+      <c r="D20" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
+      <c r="G20" s="10"/>
+      <c r="H20" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="10">
+      <c r="J20" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1016,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10">
+      <c r="D21" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="G21" s="10"/>
+      <c r="H21" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="10">
+      <c r="J21" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1045,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10">
+      <c r="D22" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="G22" s="10"/>
+      <c r="H22" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I22" s="10"/>
-      <c r="J22" s="10">
+      <c r="J22" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1074,22 +1108,22 @@
         <v>0</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="10">
+      <c r="D23" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="G23" s="10"/>
+      <c r="H23" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="10">
+      <c r="J23" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1103,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="10">
+      <c r="D24" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="G24" s="10"/>
+      <c r="H24" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I24" s="10"/>
-      <c r="J24" s="10">
+      <c r="J24" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1132,22 +1166,22 @@
         <v>0</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="10">
+      <c r="D25" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="G25" s="10"/>
+      <c r="H25" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="10">
+      <c r="J25" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1161,22 +1195,22 @@
         <v>0</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="10">
+      <c r="D26" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="G26" s="10"/>
+      <c r="H26" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="10">
+      <c r="J26" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1190,22 +1224,22 @@
         <v>0</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="10">
+      <c r="D27" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="G27" s="10"/>
+      <c r="H27" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I27" s="10"/>
-      <c r="J27" s="10">
+      <c r="J27" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1219,22 +1253,22 @@
         <v>0</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="10">
+      <c r="D28" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="G28" s="10"/>
+      <c r="H28" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="10">
+      <c r="J28" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1248,22 +1282,22 @@
         <v>0</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="10">
+      <c r="D29" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="G29" s="10"/>
+      <c r="H29" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I29" s="10"/>
-      <c r="J29" s="10">
+      <c r="J29" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1277,22 +1311,22 @@
         <v>0</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="10">
+      <c r="D30" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="G30" s="10"/>
+      <c r="H30" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I30" s="10"/>
-      <c r="J30" s="10">
+      <c r="J30" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1306,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="10">
+      <c r="D31" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="G31" s="10"/>
+      <c r="H31" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I31" s="10"/>
-      <c r="J31" s="10">
+      <c r="J31" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1335,28 +1369,5596 @@
         <v>0</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="10">
+      <c r="D32" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="G32" s="10"/>
+      <c r="H32" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="I32" s="10"/>
-      <c r="J32" s="10">
+      <c r="J32" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" ref="B33:B96" si="10">D33-C33+F33-E33+H33-G33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="15">
+        <f t="shared" ref="D33:D96" si="11">C33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="15">
+        <f t="shared" ref="F33:F96" si="12">E33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="15">
+        <f t="shared" ref="H33:H96" si="13">G33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="15">
+        <f t="shared" ref="J33:J96" si="14">I33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B36" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="10"/>
+      <c r="J37" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B42" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B43" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B46" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="10"/>
+      <c r="J56" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="J64" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B68" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B69" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B70" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B71" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B72" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B73" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B74" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B75" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B76" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B77" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B78" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B79" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B80" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B81" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B82" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B83" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B84" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B85" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B86" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B87" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B88" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B89" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B90" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B91" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B92" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B93" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B94" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B95" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B96" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B97" s="6">
+        <f t="shared" ref="B97:B160" si="15">D97-C97+F97-E97+H97-G97</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="15">
+        <f t="shared" ref="D97:D160" si="16">C97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="15">
+        <f t="shared" ref="F97:F160" si="17">E97</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="15">
+        <f t="shared" ref="H97:H160" si="18">G97</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="15">
+        <f t="shared" ref="J97:J160" si="19">I97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B98" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="10"/>
+      <c r="J98" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B99" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="10"/>
+      <c r="J99" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B100" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="10"/>
+      <c r="J100" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B101" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="10"/>
+      <c r="J101" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B102" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="10"/>
+      <c r="H102" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="10"/>
+      <c r="J102" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B103" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B104" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B105" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="10"/>
+      <c r="H105" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="10"/>
+      <c r="J105" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B106" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="10"/>
+      <c r="H106" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="10"/>
+      <c r="J106" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B107" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B108" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="10"/>
+      <c r="H108" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="10"/>
+      <c r="J108" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B109" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="10"/>
+      <c r="H109" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B110" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="10"/>
+      <c r="H110" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B111" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="10"/>
+      <c r="H111" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="10"/>
+      <c r="J111" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B112" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="10"/>
+      <c r="H112" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="10"/>
+      <c r="J112" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B113" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="10"/>
+      <c r="H113" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="10"/>
+      <c r="J113" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B114" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="10"/>
+      <c r="H114" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B115" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="10"/>
+      <c r="H115" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B116" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="10"/>
+      <c r="H116" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="10"/>
+      <c r="J116" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B117" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="10"/>
+      <c r="H117" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="10"/>
+      <c r="J117" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B118" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="10"/>
+      <c r="H118" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="10"/>
+      <c r="J118" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B119" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="10"/>
+      <c r="J119" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B120" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="10"/>
+      <c r="J120" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B121" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="10"/>
+      <c r="H121" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="10"/>
+      <c r="J121" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B122" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B123" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="10"/>
+      <c r="H123" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B124" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="10"/>
+      <c r="J124" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B125" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="10"/>
+      <c r="H125" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="10"/>
+      <c r="J125" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B126" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="10"/>
+      <c r="H126" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B127" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="10"/>
+      <c r="H127" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="10"/>
+      <c r="J127" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B128" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="10"/>
+      <c r="H128" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B129" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="10"/>
+      <c r="H129" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="10"/>
+      <c r="J129" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B130" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="10"/>
+      <c r="H130" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="10"/>
+      <c r="J130" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B131" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="10"/>
+      <c r="H131" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="10"/>
+      <c r="J131" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B132" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="10"/>
+      <c r="H132" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="10"/>
+      <c r="J132" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B133" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="10"/>
+      <c r="J133" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B134" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="10"/>
+      <c r="H134" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="10"/>
+      <c r="J134" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B135" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B136" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="10"/>
+      <c r="J136" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B137" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B138" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B139" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="10"/>
+      <c r="J139" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B140" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I140" s="10"/>
+      <c r="J140" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B141" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="10"/>
+      <c r="H141" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I141" s="10"/>
+      <c r="J141" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B142" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="10"/>
+      <c r="H142" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B143" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="10"/>
+      <c r="H143" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I143" s="10"/>
+      <c r="J143" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B144" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="10"/>
+      <c r="H144" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I144" s="10"/>
+      <c r="J144" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B145" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="10"/>
+      <c r="F145" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="10"/>
+      <c r="H145" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I145" s="10"/>
+      <c r="J145" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B146" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="10"/>
+      <c r="J146" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B147" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I147" s="10"/>
+      <c r="J147" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B148" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I148" s="10"/>
+      <c r="J148" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B149" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B150" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I150" s="10"/>
+      <c r="J150" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B151" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I151" s="10"/>
+      <c r="J151" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B152" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I152" s="10"/>
+      <c r="J152" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B153" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E153" s="10"/>
+      <c r="F153" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I153" s="10"/>
+      <c r="J153" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B154" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="10"/>
+      <c r="J154" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B155" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I155" s="10"/>
+      <c r="J155" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B156" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I156" s="10"/>
+      <c r="J156" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B157" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="10"/>
+      <c r="H157" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I157" s="10"/>
+      <c r="J157" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B158" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="10"/>
+      <c r="H158" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I158" s="10"/>
+      <c r="J158" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B159" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="10"/>
+      <c r="H159" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I159" s="10"/>
+      <c r="J159" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B160" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="10"/>
+      <c r="H160" s="15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="10"/>
+      <c r="J160" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B161" s="6">
+        <f t="shared" ref="B161:B224" si="20">D161-C161+F161-E161+H161-G161</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="15">
+        <f t="shared" ref="D161:D224" si="21">C161</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="10"/>
+      <c r="F161" s="15">
+        <f t="shared" ref="F161:F224" si="22">E161</f>
+        <v>0</v>
+      </c>
+      <c r="G161" s="10"/>
+      <c r="H161" s="15">
+        <f t="shared" ref="H161:H224" si="23">G161</f>
+        <v>0</v>
+      </c>
+      <c r="I161" s="10"/>
+      <c r="J161" s="15">
+        <f t="shared" ref="J161:J224" si="24">I161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B162" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I162" s="10"/>
+      <c r="J162" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B163" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E163" s="10"/>
+      <c r="F163" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="10"/>
+      <c r="H163" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I163" s="10"/>
+      <c r="J163" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B164" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="10"/>
+      <c r="H164" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="10"/>
+      <c r="J164" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B165" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="10"/>
+      <c r="H165" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I165" s="10"/>
+      <c r="J165" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B166" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="10"/>
+      <c r="H166" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I166" s="10"/>
+      <c r="J166" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B167" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="10"/>
+      <c r="H167" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="10"/>
+      <c r="J167" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B168" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="10"/>
+      <c r="H168" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I168" s="10"/>
+      <c r="J168" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B169" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="10"/>
+      <c r="F169" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="10"/>
+      <c r="H169" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="10"/>
+      <c r="J169" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B170" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="10"/>
+      <c r="F170" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I170" s="10"/>
+      <c r="J170" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B171" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E171" s="10"/>
+      <c r="F171" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="10"/>
+      <c r="H171" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I171" s="10"/>
+      <c r="J171" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B172" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="10"/>
+      <c r="F172" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="10"/>
+      <c r="H172" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I172" s="10"/>
+      <c r="J172" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45010</v>
+      </c>
+      <c r="B173" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="10"/>
+      <c r="F173" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="10"/>
+      <c r="H173" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I173" s="10"/>
+      <c r="J173" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B174" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="10"/>
+      <c r="F174" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="10"/>
+      <c r="H174" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I174" s="10"/>
+      <c r="J174" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B175" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E175" s="10"/>
+      <c r="F175" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="10"/>
+      <c r="H175" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I175" s="10"/>
+      <c r="J175" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B176" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="10"/>
+      <c r="F176" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="10"/>
+      <c r="H176" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I176" s="10"/>
+      <c r="J176" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B177" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="10"/>
+      <c r="H177" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I177" s="10"/>
+      <c r="J177" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B178" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="10"/>
+      <c r="F178" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="10"/>
+      <c r="H178" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I178" s="10"/>
+      <c r="J178" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B179" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="10"/>
+      <c r="F179" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="10"/>
+      <c r="H179" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I179" s="10"/>
+      <c r="J179" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B180" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="F180" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="10"/>
+      <c r="H180" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I180" s="10"/>
+      <c r="J180" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45018</v>
+      </c>
+      <c r="B181" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C181" s="10"/>
+      <c r="D181" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="10"/>
+      <c r="F181" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="10"/>
+      <c r="H181" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I181" s="10"/>
+      <c r="J181" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B182" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E182" s="10"/>
+      <c r="F182" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="10"/>
+      <c r="H182" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I182" s="10"/>
+      <c r="J182" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B183" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E183" s="10"/>
+      <c r="F183" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="10"/>
+      <c r="H183" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I183" s="10"/>
+      <c r="J183" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B184" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="10"/>
+      <c r="F184" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="H184" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I184" s="10"/>
+      <c r="J184" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B185" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C185" s="10"/>
+      <c r="D185" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E185" s="10"/>
+      <c r="F185" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I185" s="10"/>
+      <c r="J185" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B186" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C186" s="10"/>
+      <c r="D186" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="10"/>
+      <c r="F186" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I186" s="10"/>
+      <c r="J186" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B187" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E187" s="10"/>
+      <c r="F187" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G187" s="10"/>
+      <c r="H187" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I187" s="10"/>
+      <c r="J187" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B188" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="10"/>
+      <c r="F188" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I188" s="10"/>
+      <c r="J188" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B189" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C189" s="10"/>
+      <c r="D189" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I189" s="10"/>
+      <c r="J189" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B190" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E190" s="10"/>
+      <c r="F190" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I190" s="10"/>
+      <c r="J190" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B191" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C191" s="10"/>
+      <c r="D191" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E191" s="10"/>
+      <c r="F191" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I191" s="10"/>
+      <c r="J191" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B192" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C192" s="10"/>
+      <c r="D192" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E192" s="10"/>
+      <c r="F192" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G192" s="10"/>
+      <c r="H192" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I192" s="10"/>
+      <c r="J192" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B193" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E193" s="10"/>
+      <c r="F193" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I193" s="10"/>
+      <c r="J193" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B194" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E194" s="10"/>
+      <c r="F194" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I194" s="10"/>
+      <c r="J194" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B195" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="F195" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I195" s="10"/>
+      <c r="J195" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B196" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E196" s="10"/>
+      <c r="F196" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I196" s="10"/>
+      <c r="J196" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B197" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E197" s="10"/>
+      <c r="F197" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I197" s="10"/>
+      <c r="J197" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B198" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E198" s="10"/>
+      <c r="F198" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G198" s="10"/>
+      <c r="H198" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I198" s="10"/>
+      <c r="J198" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B199" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E199" s="10"/>
+      <c r="F199" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="10"/>
+      <c r="J199" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B200" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E200" s="10"/>
+      <c r="F200" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I200" s="10"/>
+      <c r="J200" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B201" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E201" s="10"/>
+      <c r="F201" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G201" s="10"/>
+      <c r="H201" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I201" s="10"/>
+      <c r="J201" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B202" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E202" s="10"/>
+      <c r="F202" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I202" s="10"/>
+      <c r="J202" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B203" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E203" s="10"/>
+      <c r="F203" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G203" s="10"/>
+      <c r="H203" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I203" s="10"/>
+      <c r="J203" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B204" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E204" s="10"/>
+      <c r="F204" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G204" s="10"/>
+      <c r="H204" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I204" s="10"/>
+      <c r="J204" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B205" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E205" s="10"/>
+      <c r="F205" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G205" s="10"/>
+      <c r="H205" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I205" s="10"/>
+      <c r="J205" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B206" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E206" s="10"/>
+      <c r="F206" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G206" s="10"/>
+      <c r="H206" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I206" s="10"/>
+      <c r="J206" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B207" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E207" s="10"/>
+      <c r="F207" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G207" s="10"/>
+      <c r="H207" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I207" s="10"/>
+      <c r="J207" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45045</v>
+      </c>
+      <c r="B208" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E208" s="10"/>
+      <c r="F208" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G208" s="10"/>
+      <c r="H208" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I208" s="10"/>
+      <c r="J208" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B209" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E209" s="10"/>
+      <c r="F209" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G209" s="10"/>
+      <c r="H209" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I209" s="10"/>
+      <c r="J209" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B210" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E210" s="10"/>
+      <c r="F210" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="10"/>
+      <c r="H210" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I210" s="10"/>
+      <c r="J210" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B211" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E211" s="10"/>
+      <c r="F211" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G211" s="10"/>
+      <c r="H211" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I211" s="10"/>
+      <c r="J211" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B212" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E212" s="10"/>
+      <c r="F212" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="10"/>
+      <c r="H212" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I212" s="10"/>
+      <c r="J212" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B213" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E213" s="10"/>
+      <c r="F213" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="10"/>
+      <c r="H213" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I213" s="10"/>
+      <c r="J213" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B214" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C214" s="10"/>
+      <c r="D214" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E214" s="10"/>
+      <c r="F214" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G214" s="10"/>
+      <c r="H214" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I214" s="10"/>
+      <c r="J214" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B215" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E215" s="10"/>
+      <c r="F215" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I215" s="10"/>
+      <c r="J215" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45053</v>
+      </c>
+      <c r="B216" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E216" s="10"/>
+      <c r="F216" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G216" s="10"/>
+      <c r="H216" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I216" s="10"/>
+      <c r="J216" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B217" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E217" s="10"/>
+      <c r="F217" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G217" s="10"/>
+      <c r="H217" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I217" s="10"/>
+      <c r="J217" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B218" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E218" s="10"/>
+      <c r="F218" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G218" s="10"/>
+      <c r="H218" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I218" s="10"/>
+      <c r="J218" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B219" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E219" s="10"/>
+      <c r="F219" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="10"/>
+      <c r="H219" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I219" s="10"/>
+      <c r="J219" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B220" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E220" s="10"/>
+      <c r="F220" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G220" s="10"/>
+      <c r="H220" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I220" s="10"/>
+      <c r="J220" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B221" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E221" s="10"/>
+      <c r="F221" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G221" s="10"/>
+      <c r="H221" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I221" s="10"/>
+      <c r="J221" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45059</v>
+      </c>
+      <c r="B222" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E222" s="10"/>
+      <c r="F222" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="10"/>
+      <c r="H222" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I222" s="10"/>
+      <c r="J222" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45060</v>
+      </c>
+      <c r="B223" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C223" s="10"/>
+      <c r="D223" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E223" s="10"/>
+      <c r="F223" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="10"/>
+      <c r="H223" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I223" s="10"/>
+      <c r="J223" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B224" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E224" s="10"/>
+      <c r="F224" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G224" s="10"/>
+      <c r="H224" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I224" s="10"/>
+      <c r="J224" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B32">
+  <conditionalFormatting sqref="B2:B224">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1386,7 +6988,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B32</xm:sqref>
+          <xm:sqref>B2:B224</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Дата</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>lesson01 практика</t>
+  </si>
+  <si>
+    <t>lesson01 практика lesson02 разбор домашки</t>
+  </si>
+  <si>
+    <t>lesson02 разбор домашки</t>
   </si>
 </sst>
 </file>
@@ -448,28 +454,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K224"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="105.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>44839</v>
       </c>
@@ -522,7 +528,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44840</v>
       </c>
@@ -543,7 +549,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44841</v>
       </c>
@@ -576,7 +582,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44842</v>
       </c>
@@ -590,7 +596,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44843</v>
       </c>
@@ -604,7 +610,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44844</v>
       </c>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44845</v>
       </c>
@@ -666,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44846</v>
       </c>
@@ -697,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44847</v>
       </c>
@@ -728,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44848</v>
       </c>
@@ -757,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44849</v>
       </c>
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44850</v>
       </c>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44851</v>
       </c>
@@ -854,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44852</v>
       </c>
@@ -882,14 +888,14 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="15">
-        <f t="shared" ref="J15:J32" si="5">I15</f>
+        <f t="shared" ref="J15:J22" si="5">I15</f>
         <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44853</v>
       </c>
@@ -924,13 +930,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44854</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" ref="B17:B32" si="6">D17-C17+F17-E17+H17-G17</f>
-        <v>4.513888888888884E-2</v>
+        <f t="shared" ref="B17:B22" si="6">D17-C17+F17-E17+H17-G17</f>
+        <v>9.9305555555555425E-2</v>
       </c>
       <c r="C17" s="10">
         <v>0.56874999999999998</v>
@@ -938,14 +944,15 @@
       <c r="D17" s="15">
         <v>0.61388888888888882</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>0.62083333333333335</v>
+      </c>
       <c r="F17" s="15">
-        <f t="shared" ref="F17:F32" si="7">E17</f>
-        <v>0</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:H32" si="8">G17</f>
+        <f t="shared" ref="H17:H22" si="7">G17</f>
         <v>0</v>
       </c>
       <c r="I17" s="10"/>
@@ -953,8 +960,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44855</v>
       </c>
@@ -962,19 +972,21 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <v>0.71180555555555547</v>
+      </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D17:D32" si="9">C18</f>
-        <v>0</v>
+        <f t="shared" ref="D18:D20" si="8">C18</f>
+        <v>0.71180555555555547</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F18:F22" si="9">E18</f>
         <v>0</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="10"/>
@@ -983,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44856</v>
       </c>
@@ -993,17 +1005,17 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="10"/>
@@ -1012,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44857</v>
       </c>
@@ -1022,17 +1034,17 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="10"/>
@@ -1041,27 +1053,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44858</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>0.16875000000000007</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.59375</v>
+      </c>
       <c r="D21" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="10"/>
@@ -1069,28 +1082,32 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44859</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.62708333333333333</v>
+      </c>
       <c r="D22" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.66388888888888886</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="10"/>
@@ -1099,328 +1116,330 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44860</v>
+        <v>44921</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="10"/>
+        <f t="shared" ref="B23:B35" si="10">D23-C23+F23-E23+H23-G23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.29444444444444445</v>
+      </c>
       <c r="D23" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="D23:D35" si="11">C23</f>
+        <v>0.29444444444444445</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F23:F35" si="12">E23</f>
         <v>0</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H23:H35" si="13">G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J23:J35" si="14">I23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44861</v>
+        <v>44922</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44862</v>
+        <v>44923</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44863</v>
+        <v>44924</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44864</v>
+        <v>44925</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44867</v>
+        <v>44928</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44868</v>
+        <v>44929</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44869</v>
+        <v>44930</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44870</v>
+        <v>44931</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" ref="B33:B96" si="10">D33-C33+F33-E33+H33-G33</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="15">
-        <f t="shared" ref="D33:D96" si="11">C33</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="15">
-        <f t="shared" ref="F33:F96" si="12">E33</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="15">
-        <f t="shared" ref="H33:H96" si="13">G33</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="15">
-        <f t="shared" ref="J33:J96" si="14">I33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44871</v>
+        <v>44932</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="10"/>
@@ -1447,9 +1466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44872</v>
+        <v>44933</v>
       </c>
       <c r="B35" s="6">
         <f t="shared" si="10"/>
@@ -1476,1807 +1495,1807 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44873</v>
+        <v>44934</v>
       </c>
       <c r="B36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B36:B99" si="15">D36-C36+F36-E36+H36-G36</f>
         <v>0</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D36:D99" si="16">C36</f>
         <v>0</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F36:F99" si="17">E36</f>
         <v>0</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H36:H99" si="18">G36</f>
         <v>0</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J36:J99" si="19">I36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44874</v>
+        <v>44935</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44875</v>
+        <v>44936</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44876</v>
+        <v>44937</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44877</v>
+        <v>44938</v>
       </c>
       <c r="B40" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44878</v>
+        <v>44939</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44879</v>
+        <v>44940</v>
       </c>
       <c r="B42" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44880</v>
+        <v>44941</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44881</v>
+        <v>44942</v>
       </c>
       <c r="B44" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44882</v>
+        <v>44943</v>
       </c>
       <c r="B45" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44883</v>
+        <v>44944</v>
       </c>
       <c r="B46" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44884</v>
+        <v>44945</v>
       </c>
       <c r="B47" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44885</v>
+        <v>44946</v>
       </c>
       <c r="B48" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44886</v>
+        <v>44947</v>
       </c>
       <c r="B49" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44887</v>
+        <v>44948</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44888</v>
+        <v>44949</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44889</v>
+        <v>44950</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44890</v>
+        <v>44951</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44891</v>
+        <v>44952</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44892</v>
+        <v>44953</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44893</v>
+        <v>44954</v>
       </c>
       <c r="B56" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44894</v>
+        <v>44955</v>
       </c>
       <c r="B57" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44895</v>
+        <v>44956</v>
       </c>
       <c r="B58" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44896</v>
+        <v>44957</v>
       </c>
       <c r="B59" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44897</v>
+        <v>44958</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44898</v>
+        <v>44959</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44899</v>
+        <v>44960</v>
       </c>
       <c r="B62" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44900</v>
+        <v>44961</v>
       </c>
       <c r="B63" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44901</v>
+        <v>44962</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44902</v>
+        <v>44963</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44903</v>
+        <v>44964</v>
       </c>
       <c r="B66" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44904</v>
+        <v>44965</v>
       </c>
       <c r="B67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44905</v>
+        <v>44966</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44906</v>
+        <v>44967</v>
       </c>
       <c r="B69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44907</v>
+        <v>44968</v>
       </c>
       <c r="B70" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44908</v>
+        <v>44969</v>
       </c>
       <c r="B71" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44909</v>
+        <v>44970</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44910</v>
+        <v>44971</v>
       </c>
       <c r="B73" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44911</v>
+        <v>44972</v>
       </c>
       <c r="B74" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44912</v>
+        <v>44973</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44913</v>
+        <v>44974</v>
       </c>
       <c r="B76" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44914</v>
+        <v>44975</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44915</v>
+        <v>44976</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44916</v>
+        <v>44977</v>
       </c>
       <c r="B79" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44917</v>
+        <v>44978</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44918</v>
+        <v>44979</v>
       </c>
       <c r="B81" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44919</v>
+        <v>44980</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44920</v>
+        <v>44981</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44921</v>
+        <v>44982</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44922</v>
+        <v>44983</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44923</v>
+        <v>44984</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44924</v>
+        <v>44985</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44925</v>
+        <v>44986</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44926</v>
+        <v>44987</v>
       </c>
       <c r="B89" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44927</v>
+        <v>44988</v>
       </c>
       <c r="B90" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44928</v>
+        <v>44989</v>
       </c>
       <c r="B91" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44929</v>
+        <v>44990</v>
       </c>
       <c r="B92" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44930</v>
+        <v>44991</v>
       </c>
       <c r="B93" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44931</v>
+        <v>44992</v>
       </c>
       <c r="B94" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44932</v>
+        <v>44993</v>
       </c>
       <c r="B95" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44933</v>
+        <v>44994</v>
       </c>
       <c r="B96" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44934</v>
+        <v>44995</v>
       </c>
       <c r="B97" s="6">
-        <f t="shared" ref="B97:B160" si="15">D97-C97+F97-E97+H97-G97</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="15">
-        <f t="shared" ref="D97:D160" si="16">C97</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="15">
-        <f t="shared" ref="F97:F160" si="17">E97</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="15">
-        <f t="shared" ref="H97:H160" si="18">G97</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="15">
-        <f t="shared" ref="J97:J160" si="19">I97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44935</v>
+        <v>44996</v>
       </c>
       <c r="B98" s="6">
         <f t="shared" si="15"/>
@@ -3303,9 +3322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44936</v>
+        <v>44997</v>
       </c>
       <c r="B99" s="6">
         <f t="shared" si="15"/>
@@ -3332,1807 +3351,1807 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44937</v>
+        <v>44998</v>
       </c>
       <c r="B100" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B100:B163" si="20">D100-C100+F100-E100+H100-G100</f>
         <v>0</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D100:D163" si="21">C100</f>
         <v>0</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="F100:F163" si="22">E100</f>
         <v>0</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H100:H163" si="23">G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J100:J163" si="24">I100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44938</v>
+        <v>44999</v>
       </c>
       <c r="B101" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44939</v>
+        <v>45000</v>
       </c>
       <c r="B102" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44940</v>
+        <v>45001</v>
       </c>
       <c r="B103" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44941</v>
+        <v>45002</v>
       </c>
       <c r="B104" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44942</v>
+        <v>45003</v>
       </c>
       <c r="B105" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44943</v>
+        <v>45004</v>
       </c>
       <c r="B106" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44944</v>
+        <v>45005</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44945</v>
+        <v>45006</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44946</v>
+        <v>45007</v>
       </c>
       <c r="B109" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44947</v>
+        <v>45008</v>
       </c>
       <c r="B110" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44948</v>
+        <v>45009</v>
       </c>
       <c r="B111" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44949</v>
+        <v>45010</v>
       </c>
       <c r="B112" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44950</v>
+        <v>45011</v>
       </c>
       <c r="B113" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44951</v>
+        <v>45012</v>
       </c>
       <c r="B114" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44952</v>
+        <v>45013</v>
       </c>
       <c r="B115" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44953</v>
+        <v>45014</v>
       </c>
       <c r="B116" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44954</v>
+        <v>45015</v>
       </c>
       <c r="B117" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44955</v>
+        <v>45016</v>
       </c>
       <c r="B118" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44956</v>
+        <v>45017</v>
       </c>
       <c r="B119" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44957</v>
+        <v>45018</v>
       </c>
       <c r="B120" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44958</v>
+        <v>45019</v>
       </c>
       <c r="B121" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I121" s="10"/>
       <c r="J121" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44959</v>
+        <v>45020</v>
       </c>
       <c r="B122" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44960</v>
+        <v>45021</v>
       </c>
       <c r="B123" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44961</v>
+        <v>45022</v>
       </c>
       <c r="B124" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44962</v>
+        <v>45023</v>
       </c>
       <c r="B125" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G125" s="10"/>
       <c r="H125" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44963</v>
+        <v>45024</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44964</v>
+        <v>45025</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44965</v>
+        <v>45026</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44966</v>
+        <v>45027</v>
       </c>
       <c r="B129" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44967</v>
+        <v>45028</v>
       </c>
       <c r="B130" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44968</v>
+        <v>45029</v>
       </c>
       <c r="B131" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G131" s="10"/>
       <c r="H131" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I131" s="10"/>
       <c r="J131" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44969</v>
+        <v>45030</v>
       </c>
       <c r="B132" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44970</v>
+        <v>45031</v>
       </c>
       <c r="B133" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44971</v>
+        <v>45032</v>
       </c>
       <c r="B134" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44972</v>
+        <v>45033</v>
       </c>
       <c r="B135" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44973</v>
+        <v>45034</v>
       </c>
       <c r="B136" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I136" s="10"/>
       <c r="J136" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44974</v>
+        <v>45035</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I137" s="10"/>
       <c r="J137" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44975</v>
+        <v>45036</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G138" s="10"/>
       <c r="H138" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44976</v>
+        <v>45037</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>44977</v>
+        <v>45038</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44978</v>
+        <v>45039</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44979</v>
+        <v>45040</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G142" s="10"/>
       <c r="H142" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44980</v>
+        <v>45041</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G143" s="10"/>
       <c r="H143" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44981</v>
+        <v>45042</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G144" s="10"/>
       <c r="H144" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44982</v>
+        <v>45043</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G145" s="10"/>
       <c r="H145" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44983</v>
+        <v>45044</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44984</v>
+        <v>45045</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44985</v>
+        <v>45046</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G148" s="10"/>
       <c r="H148" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I149" s="10"/>
       <c r="J149" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44987</v>
+        <v>45048</v>
       </c>
       <c r="B150" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44988</v>
+        <v>45049</v>
       </c>
       <c r="B151" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G151" s="10"/>
       <c r="H151" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>44989</v>
+        <v>45050</v>
       </c>
       <c r="B152" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44990</v>
+        <v>45051</v>
       </c>
       <c r="B153" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44991</v>
+        <v>45052</v>
       </c>
       <c r="B154" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I154" s="10"/>
       <c r="J154" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44992</v>
+        <v>45053</v>
       </c>
       <c r="B155" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44993</v>
+        <v>45054</v>
       </c>
       <c r="B156" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I156" s="10"/>
       <c r="J156" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44994</v>
+        <v>45055</v>
       </c>
       <c r="B157" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I157" s="10"/>
       <c r="J157" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44995</v>
+        <v>45056</v>
       </c>
       <c r="B158" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I158" s="10"/>
       <c r="J158" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44996</v>
+        <v>45057</v>
       </c>
       <c r="B159" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I159" s="10"/>
       <c r="J159" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44997</v>
+        <v>45058</v>
       </c>
       <c r="B160" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I160" s="10"/>
       <c r="J160" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44998</v>
+        <v>45059</v>
       </c>
       <c r="B161" s="6">
-        <f t="shared" ref="B161:B224" si="20">D161-C161+F161-E161+H161-G161</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="15">
-        <f t="shared" ref="D161:D224" si="21">C161</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="15">
-        <f t="shared" ref="F161:F224" si="22">E161</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="15">
-        <f t="shared" ref="H161:H224" si="23">G161</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I161" s="10"/>
       <c r="J161" s="15">
-        <f t="shared" ref="J161:J224" si="24">I161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44999</v>
+        <v>45060</v>
       </c>
       <c r="B162" s="6">
         <f t="shared" si="20"/>
@@ -5159,9 +5178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45000</v>
+        <v>45061</v>
       </c>
       <c r="B163" s="6">
         <f t="shared" si="20"/>
@@ -5188,1778 +5207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>45001</v>
-      </c>
-      <c r="B164" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E164" s="10"/>
-      <c r="F164" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="10"/>
-      <c r="H164" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I164" s="10"/>
-      <c r="J164" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>45002</v>
-      </c>
-      <c r="B165" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="10"/>
-      <c r="H165" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I165" s="10"/>
-      <c r="J165" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>45003</v>
-      </c>
-      <c r="B166" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E166" s="10"/>
-      <c r="F166" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="10"/>
-      <c r="H166" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I166" s="10"/>
-      <c r="J166" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>45004</v>
-      </c>
-      <c r="B167" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="10"/>
-      <c r="H167" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I167" s="10"/>
-      <c r="J167" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>45005</v>
-      </c>
-      <c r="B168" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E168" s="10"/>
-      <c r="F168" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="10"/>
-      <c r="H168" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I168" s="10"/>
-      <c r="J168" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>45006</v>
-      </c>
-      <c r="B169" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="10"/>
-      <c r="H169" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I169" s="10"/>
-      <c r="J169" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>45007</v>
-      </c>
-      <c r="B170" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E170" s="10"/>
-      <c r="F170" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="10"/>
-      <c r="H170" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I170" s="10"/>
-      <c r="J170" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>45008</v>
-      </c>
-      <c r="B171" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E171" s="10"/>
-      <c r="F171" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G171" s="10"/>
-      <c r="H171" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I171" s="10"/>
-      <c r="J171" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>45009</v>
-      </c>
-      <c r="B172" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E172" s="10"/>
-      <c r="F172" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G172" s="10"/>
-      <c r="H172" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I172" s="10"/>
-      <c r="J172" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>45010</v>
-      </c>
-      <c r="B173" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="10"/>
-      <c r="F173" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G173" s="10"/>
-      <c r="H173" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I173" s="10"/>
-      <c r="J173" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>45011</v>
-      </c>
-      <c r="B174" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G174" s="10"/>
-      <c r="H174" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I174" s="10"/>
-      <c r="J174" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>45012</v>
-      </c>
-      <c r="B175" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E175" s="10"/>
-      <c r="F175" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G175" s="10"/>
-      <c r="H175" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I175" s="10"/>
-      <c r="J175" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>45013</v>
-      </c>
-      <c r="B176" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E176" s="10"/>
-      <c r="F176" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I176" s="10"/>
-      <c r="J176" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>45014</v>
-      </c>
-      <c r="B177" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E177" s="10"/>
-      <c r="F177" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G177" s="10"/>
-      <c r="H177" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I177" s="10"/>
-      <c r="J177" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>45015</v>
-      </c>
-      <c r="B178" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E178" s="10"/>
-      <c r="F178" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G178" s="10"/>
-      <c r="H178" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I178" s="10"/>
-      <c r="J178" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B179" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G179" s="10"/>
-      <c r="H179" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I179" s="10"/>
-      <c r="J179" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>45017</v>
-      </c>
-      <c r="B180" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E180" s="10"/>
-      <c r="F180" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G180" s="10"/>
-      <c r="H180" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I180" s="10"/>
-      <c r="J180" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>45018</v>
-      </c>
-      <c r="B181" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G181" s="10"/>
-      <c r="H181" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I181" s="10"/>
-      <c r="J181" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>45019</v>
-      </c>
-      <c r="B182" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C182" s="10"/>
-      <c r="D182" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G182" s="10"/>
-      <c r="H182" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I182" s="10"/>
-      <c r="J182" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>45020</v>
-      </c>
-      <c r="B183" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E183" s="10"/>
-      <c r="F183" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G183" s="10"/>
-      <c r="H183" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I183" s="10"/>
-      <c r="J183" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>45021</v>
-      </c>
-      <c r="B184" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G184" s="10"/>
-      <c r="H184" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I184" s="10"/>
-      <c r="J184" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>45022</v>
-      </c>
-      <c r="B185" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E185" s="10"/>
-      <c r="F185" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G185" s="10"/>
-      <c r="H185" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I185" s="10"/>
-      <c r="J185" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>45023</v>
-      </c>
-      <c r="B186" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E186" s="10"/>
-      <c r="F186" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G186" s="10"/>
-      <c r="H186" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I186" s="10"/>
-      <c r="J186" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>45024</v>
-      </c>
-      <c r="B187" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E187" s="10"/>
-      <c r="F187" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G187" s="10"/>
-      <c r="H187" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I187" s="10"/>
-      <c r="J187" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>45025</v>
-      </c>
-      <c r="B188" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G188" s="10"/>
-      <c r="H188" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I188" s="10"/>
-      <c r="J188" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>45026</v>
-      </c>
-      <c r="B189" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G189" s="10"/>
-      <c r="H189" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I189" s="10"/>
-      <c r="J189" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>45027</v>
-      </c>
-      <c r="B190" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G190" s="10"/>
-      <c r="H190" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I190" s="10"/>
-      <c r="J190" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B191" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E191" s="10"/>
-      <c r="F191" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G191" s="10"/>
-      <c r="H191" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I191" s="10"/>
-      <c r="J191" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>45029</v>
-      </c>
-      <c r="B192" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E192" s="10"/>
-      <c r="F192" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G192" s="10"/>
-      <c r="H192" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I192" s="10"/>
-      <c r="J192" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <v>45030</v>
-      </c>
-      <c r="B193" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C193" s="10"/>
-      <c r="D193" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E193" s="10"/>
-      <c r="F193" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G193" s="10"/>
-      <c r="H193" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I193" s="10"/>
-      <c r="J193" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <v>45031</v>
-      </c>
-      <c r="B194" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C194" s="10"/>
-      <c r="D194" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E194" s="10"/>
-      <c r="F194" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G194" s="10"/>
-      <c r="H194" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I194" s="10"/>
-      <c r="J194" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <v>45032</v>
-      </c>
-      <c r="B195" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G195" s="10"/>
-      <c r="H195" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I195" s="10"/>
-      <c r="J195" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>45033</v>
-      </c>
-      <c r="B196" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E196" s="10"/>
-      <c r="F196" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G196" s="10"/>
-      <c r="H196" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I196" s="10"/>
-      <c r="J196" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>45034</v>
-      </c>
-      <c r="B197" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C197" s="10"/>
-      <c r="D197" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E197" s="10"/>
-      <c r="F197" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G197" s="10"/>
-      <c r="H197" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I197" s="10"/>
-      <c r="J197" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>45035</v>
-      </c>
-      <c r="B198" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E198" s="10"/>
-      <c r="F198" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G198" s="10"/>
-      <c r="H198" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I198" s="10"/>
-      <c r="J198" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>45036</v>
-      </c>
-      <c r="B199" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E199" s="10"/>
-      <c r="F199" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G199" s="10"/>
-      <c r="H199" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I199" s="10"/>
-      <c r="J199" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>45037</v>
-      </c>
-      <c r="B200" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G200" s="10"/>
-      <c r="H200" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I200" s="10"/>
-      <c r="J200" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>45038</v>
-      </c>
-      <c r="B201" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E201" s="10"/>
-      <c r="F201" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G201" s="10"/>
-      <c r="H201" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I201" s="10"/>
-      <c r="J201" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>45039</v>
-      </c>
-      <c r="B202" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E202" s="10"/>
-      <c r="F202" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G202" s="10"/>
-      <c r="H202" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I202" s="10"/>
-      <c r="J202" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <v>45040</v>
-      </c>
-      <c r="B203" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G203" s="10"/>
-      <c r="H203" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I203" s="10"/>
-      <c r="J203" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B204" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E204" s="10"/>
-      <c r="F204" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G204" s="10"/>
-      <c r="H204" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I204" s="10"/>
-      <c r="J204" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <v>45042</v>
-      </c>
-      <c r="B205" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E205" s="10"/>
-      <c r="F205" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G205" s="10"/>
-      <c r="H205" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I205" s="10"/>
-      <c r="J205" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <v>45043</v>
-      </c>
-      <c r="B206" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E206" s="10"/>
-      <c r="F206" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G206" s="10"/>
-      <c r="H206" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I206" s="10"/>
-      <c r="J206" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <v>45044</v>
-      </c>
-      <c r="B207" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E207" s="10"/>
-      <c r="F207" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G207" s="10"/>
-      <c r="H207" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I207" s="10"/>
-      <c r="J207" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>45045</v>
-      </c>
-      <c r="B208" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E208" s="10"/>
-      <c r="F208" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G208" s="10"/>
-      <c r="H208" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I208" s="10"/>
-      <c r="J208" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>45046</v>
-      </c>
-      <c r="B209" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E209" s="10"/>
-      <c r="F209" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G209" s="10"/>
-      <c r="H209" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I209" s="10"/>
-      <c r="J209" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>45047</v>
-      </c>
-      <c r="B210" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E210" s="10"/>
-      <c r="F210" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G210" s="10"/>
-      <c r="H210" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I210" s="10"/>
-      <c r="J210" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>45048</v>
-      </c>
-      <c r="B211" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E211" s="10"/>
-      <c r="F211" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G211" s="10"/>
-      <c r="H211" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I211" s="10"/>
-      <c r="J211" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>45049</v>
-      </c>
-      <c r="B212" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E212" s="10"/>
-      <c r="F212" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G212" s="10"/>
-      <c r="H212" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I212" s="10"/>
-      <c r="J212" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>45050</v>
-      </c>
-      <c r="B213" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C213" s="10"/>
-      <c r="D213" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E213" s="10"/>
-      <c r="F213" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G213" s="10"/>
-      <c r="H213" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I213" s="10"/>
-      <c r="J213" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>45051</v>
-      </c>
-      <c r="B214" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C214" s="10"/>
-      <c r="D214" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E214" s="10"/>
-      <c r="F214" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G214" s="10"/>
-      <c r="H214" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I214" s="10"/>
-      <c r="J214" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <v>45052</v>
-      </c>
-      <c r="B215" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C215" s="10"/>
-      <c r="D215" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E215" s="10"/>
-      <c r="F215" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G215" s="10"/>
-      <c r="H215" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I215" s="10"/>
-      <c r="J215" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
-        <v>45053</v>
-      </c>
-      <c r="B216" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E216" s="10"/>
-      <c r="F216" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G216" s="10"/>
-      <c r="H216" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I216" s="10"/>
-      <c r="J216" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <v>45054</v>
-      </c>
-      <c r="B217" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E217" s="10"/>
-      <c r="F217" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G217" s="10"/>
-      <c r="H217" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I217" s="10"/>
-      <c r="J217" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <v>45055</v>
-      </c>
-      <c r="B218" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E218" s="10"/>
-      <c r="F218" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G218" s="10"/>
-      <c r="H218" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I218" s="10"/>
-      <c r="J218" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>45056</v>
-      </c>
-      <c r="B219" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E219" s="10"/>
-      <c r="F219" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G219" s="10"/>
-      <c r="H219" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I219" s="10"/>
-      <c r="J219" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>45057</v>
-      </c>
-      <c r="B220" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E220" s="10"/>
-      <c r="F220" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G220" s="10"/>
-      <c r="H220" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I220" s="10"/>
-      <c r="J220" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>45058</v>
-      </c>
-      <c r="B221" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C221" s="10"/>
-      <c r="D221" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E221" s="10"/>
-      <c r="F221" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G221" s="10"/>
-      <c r="H221" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I221" s="10"/>
-      <c r="J221" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>45059</v>
-      </c>
-      <c r="B222" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E222" s="10"/>
-      <c r="F222" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G222" s="10"/>
-      <c r="H222" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I222" s="10"/>
-      <c r="J222" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>45060</v>
-      </c>
-      <c r="B223" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C223" s="10"/>
-      <c r="D223" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E223" s="10"/>
-      <c r="F223" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G223" s="10"/>
-      <c r="H223" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I223" s="10"/>
-      <c r="J223" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <v>45061</v>
-      </c>
-      <c r="B224" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="C224" s="10"/>
-      <c r="D224" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E224" s="10"/>
-      <c r="F224" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G224" s="10"/>
-      <c r="H224" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I224" s="10"/>
-      <c r="J224" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B224">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="B2:B163">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6988,7 +5238,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B224</xm:sqref>
+          <xm:sqref>B2:B163</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7002,7 +5252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7014,7 +5264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Дневники/Подсчет количества часов.xlsx
+++ b/Дневники/Подсчет количества часов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Дата</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>lesson02 разбор домашки</t>
+  </si>
+  <si>
+    <t>Восстановление старой активности. Просмтр мотивационных видео. Настройка счетчика времени.</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,7 @@
     <col min="8" max="8" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.140625" customWidth="1"/>
+    <col min="11" max="11" width="170.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -935,7 +938,7 @@
         <v>44854</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" ref="B17:B22" si="6">D17-C17+F17-E17+H17-G17</f>
+        <f t="shared" ref="B17:B35" si="6">D17-C17+F17-E17+H17-G17</f>
         <v>9.9305555555555425E-2</v>
       </c>
       <c r="C17" s="10">
@@ -1121,30 +1124,32 @@
         <v>44921</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:B35" si="10">D23-C23+F23-E23+H23-G23</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.10138888888888886</v>
       </c>
       <c r="C23" s="10">
         <v>0.29444444444444445</v>
       </c>
       <c r="D23" s="15">
-        <f t="shared" ref="D23:D35" si="11">C23</f>
-        <v>0.29444444444444445</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="15">
-        <f t="shared" ref="F23:F35" si="12">E23</f>
+        <f t="shared" ref="F23:F35" si="10">E23</f>
         <v>0</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="15">
-        <f t="shared" ref="H23:H35" si="13">G23</f>
+        <f t="shared" ref="H23:H35" si="11">G23</f>
         <v>0</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15">
-        <f t="shared" ref="J23:J35" si="14">I23</f>
-        <v>0</v>
+        <f t="shared" ref="J23:J35" si="12">I23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1152,27 +1157,27 @@
         <v>44922</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D23:D35" si="13">C24</f>
         <v>0</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1181,27 +1186,27 @@
         <v>44923</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1210,27 +1215,27 @@
         <v>44924</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1239,27 +1244,27 @@
         <v>44925</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1268,27 +1273,27 @@
         <v>44926</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1297,27 +1302,27 @@
         <v>44927</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1326,27 +1331,27 @@
         <v>44928</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1355,27 +1360,27 @@
         <v>44929</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1384,27 +1389,27 @@
         <v>44930</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1413,27 +1418,27 @@
         <v>44931</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1442,27 +1447,27 @@
         <v>44932</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1471,27 +1476,27 @@
         <v>44933</v>
       </c>
       <c r="B35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1500,27 +1505,27 @@
         <v>44934</v>
       </c>
       <c r="B36" s="6">
-        <f t="shared" ref="B36:B99" si="15">D36-C36+F36-E36+H36-G36</f>
+        <f t="shared" ref="B36:B99" si="14">D36-C36+F36-E36+H36-G36</f>
         <v>0</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="15">
-        <f t="shared" ref="D36:D99" si="16">C36</f>
+        <f t="shared" ref="D36:D99" si="15">C36</f>
         <v>0</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="15">
-        <f t="shared" ref="F36:F99" si="17">E36</f>
+        <f t="shared" ref="F36:F99" si="16">E36</f>
         <v>0</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="15">
-        <f t="shared" ref="H36:H99" si="18">G36</f>
+        <f t="shared" ref="H36:H99" si="17">G36</f>
         <v>0</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="15">
-        <f t="shared" ref="J36:J99" si="19">I36</f>
+        <f t="shared" ref="J36:J99" si="18">I36</f>
         <v>0</v>
       </c>
     </row>
@@ -1529,27 +1534,27 @@
         <v>44935</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1558,27 +1563,27 @@
         <v>44936</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1587,27 +1592,27 @@
         <v>44937</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1616,27 +1621,27 @@
         <v>44938</v>
       </c>
       <c r="B40" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1645,27 +1650,27 @@
         <v>44939</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1674,27 +1679,27 @@
         <v>44940</v>
       </c>
       <c r="B42" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1703,27 +1708,27 @@
         <v>44941</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1732,27 +1737,27 @@
         <v>44942</v>
       </c>
       <c r="B44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1761,27 +1766,27 @@
         <v>44943</v>
       </c>
       <c r="B45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1790,27 +1795,27 @@
         <v>44944</v>
       </c>
       <c r="B46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1819,27 +1824,27 @@
         <v>44945</v>
       </c>
       <c r="B47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1848,27 +1853,27 @@
         <v>44946</v>
       </c>
       <c r="B48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1877,27 +1882,27 @@
         <v>44947</v>
       </c>
       <c r="B49" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1906,27 +1911,27 @@
         <v>44948</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1935,27 +1940,27 @@
         <v>44949</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1964,27 +1969,27 @@
         <v>44950</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -1993,27 +1998,27 @@
         <v>44951</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2022,27 +2027,27 @@
         <v>44952</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2051,27 +2056,27 @@
         <v>44953</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2080,27 +2085,27 @@
         <v>44954</v>
       </c>
       <c r="B56" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2109,27 +2114,27 @@
         <v>44955</v>
       </c>
       <c r="B57" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2138,27 +2143,27 @@
         <v>44956</v>
       </c>
       <c r="B58" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2167,27 +2172,27 @@
         <v>44957</v>
       </c>
       <c r="B59" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2196,27 +2201,27 @@
         <v>44958</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2225,27 +2230,27 @@
         <v>44959</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2254,27 +2259,27 @@
         <v>44960</v>
       </c>
       <c r="B62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2283,27 +2288,27 @@
         <v>44961</v>
       </c>
       <c r="B63" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2312,27 +2317,27 @@
         <v>44962</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2341,27 +2346,27 @@
         <v>44963</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2370,27 +2375,27 @@
         <v>44964</v>
       </c>
       <c r="B66" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2399,27 +2404,27 @@
         <v>44965</v>
       </c>
       <c r="B67" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2428,27 +2433,27 @@
         <v>44966</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2457,27 +2462,27 @@
         <v>44967</v>
       </c>
       <c r="B69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2486,27 +2491,27 @@
         <v>44968</v>
       </c>
       <c r="B70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2515,27 +2520,27 @@
         <v>44969</v>
       </c>
       <c r="B71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2544,27 +2549,27 @@
         <v>44970</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2573,27 +2578,27 @@
         <v>44971</v>
       </c>
       <c r="B73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2602,27 +2607,27 @@
         <v>44972</v>
       </c>
       <c r="B74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2631,27 +2636,27 @@
         <v>44973</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2660,27 +2665,27 @@
         <v>44974</v>
       </c>
       <c r="B76" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2689,27 +2694,27 @@
         <v>44975</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2718,27 +2723,27 @@
         <v>44976</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2747,27 +2752,27 @@
         <v>44977</v>
       </c>
       <c r="B79" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2776,27 +2781,27 @@
         <v>44978</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2805,27 +2810,27 @@
         <v>44979</v>
       </c>
       <c r="B81" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,27 +2839,27 @@
         <v>44980</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2863,27 +2868,27 @@
         <v>44981</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2892,27 +2897,27 @@
         <v>44982</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2921,27 +2926,27 @@
         <v>44983</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2950,27 +2955,27 @@
         <v>44984</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2979,27 +2984,27 @@
         <v>44985</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3008,27 +3013,27 @@
         <v>44986</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3037,27 +3042,27 @@
         <v>44987</v>
       </c>
       <c r="B89" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3066,27 +3071,27 @@
         <v>44988</v>
       </c>
       <c r="B90" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,27 +3100,27 @@
         <v>44989</v>
       </c>
       <c r="B91" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3124,27 +3129,27 @@
         <v>44990</v>
       </c>
       <c r="B92" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3153,27 +3158,27 @@
         <v>44991</v>
       </c>
       <c r="B93" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3182,27 +3187,27 @@
         <v>44992</v>
       </c>
       <c r="B94" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3211,27 +3216,27 @@
         <v>44993</v>
       </c>
       <c r="B95" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3240,27 +3245,27 @@
         <v>44994</v>
       </c>
       <c r="B96" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3269,27 +3274,27 @@
         <v>44995</v>
       </c>
       <c r="B97" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3298,27 +3303,27 @@
         <v>44996</v>
       </c>
       <c r="B98" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3327,27 +3332,27 @@
         <v>44997</v>
       </c>
       <c r="B99" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3356,27 +3361,27 @@
         <v>44998</v>
       </c>
       <c r="B100" s="6">
-        <f t="shared" ref="B100:B163" si="20">D100-C100+F100-E100+H100-G100</f>
+        <f t="shared" ref="B100:B163" si="19">D100-C100+F100-E100+H100-G100</f>
         <v>0</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="15">
-        <f t="shared" ref="D100:D163" si="21">C100</f>
+        <f t="shared" ref="D100:D163" si="20">C100</f>
         <v>0</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="15">
-        <f t="shared" ref="F100:F163" si="22">E100</f>
+        <f t="shared" ref="F100:F163" si="21">E100</f>
         <v>0</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="15">
-        <f t="shared" ref="H100:H163" si="23">G100</f>
+        <f t="shared" ref="H100:H163" si="22">G100</f>
         <v>0</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="15">
-        <f t="shared" ref="J100:J163" si="24">I100</f>
+        <f t="shared" ref="J100:J163" si="23">I100</f>
         <v>0</v>
       </c>
     </row>
@@ -3385,27 +3390,27 @@
         <v>44999</v>
       </c>
       <c r="B101" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3414,27 +3419,27 @@
         <v>45000</v>
       </c>
       <c r="B102" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3443,27 +3448,27 @@
         <v>45001</v>
       </c>
       <c r="B103" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3472,27 +3477,27 @@
         <v>45002</v>
       </c>
       <c r="B104" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3501,27 +3506,27 @@
         <v>45003</v>
       </c>
       <c r="B105" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3530,27 +3535,27 @@
         <v>45004</v>
       </c>
       <c r="B106" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3559,27 +3564,27 @@
         <v>45005</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3588,27 +3593,27 @@
         <v>45006</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3617,27 +3622,27 @@
         <v>45007</v>
       </c>
       <c r="B109" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3646,27 +3651,27 @@
         <v>45008</v>
       </c>
       <c r="B110" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3675,27 +3680,27 @@
         <v>45009</v>
       </c>
       <c r="B111" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3704,27 +3709,27 @@
         <v>45010</v>
       </c>
       <c r="B112" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3733,27 +3738,27 @@
         <v>45011</v>
       </c>
       <c r="B113" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3762,27 +3767,27 @@
         <v>45012</v>
       </c>
       <c r="B114" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3791,27 +3796,27 @@
         <v>45013</v>
       </c>
       <c r="B115" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3820,27 +3825,27 @@
         <v>45014</v>
       </c>
       <c r="B116" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3849,27 +3854,27 @@
         <v>45015</v>
       </c>
       <c r="B117" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3878,27 +3883,27 @@
         <v>45016</v>
       </c>
       <c r="B118" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3907,27 +3912,27 @@
         <v>45017</v>
       </c>
       <c r="B119" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3936,27 +3941,27 @@
         <v>45018</v>
       </c>
       <c r="B120" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3965,27 +3970,27 @@
         <v>45019</v>
       </c>
       <c r="B121" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I121" s="10"/>
       <c r="J121" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3994,27 +3999,27 @@
         <v>45020</v>
       </c>
       <c r="B122" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G122" s="10"/>
       <c r="H122" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I122" s="10"/>
       <c r="J122" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4023,27 +4028,27 @@
         <v>45021</v>
       </c>
       <c r="B123" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4052,27 +4057,27 @@
         <v>45022</v>
       </c>
       <c r="B124" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4081,27 +4086,27 @@
         <v>45023</v>
       </c>
       <c r="B125" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G125" s="10"/>
       <c r="H125" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4110,27 +4115,27 @@
         <v>45024</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4139,27 +4144,27 @@
         <v>45025</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4168,27 +4173,27 @@
         <v>45026</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4197,27 +4202,27 @@
         <v>45027</v>
       </c>
       <c r="B129" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4226,27 +4231,27 @@
         <v>45028</v>
       </c>
       <c r="B130" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4255,27 +4260,27 @@
         <v>45029</v>
       </c>
       <c r="B131" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G131" s="10"/>
       <c r="H131" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I131" s="10"/>
       <c r="J131" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4284,27 +4289,27 @@
         <v>45030</v>
       </c>
       <c r="B132" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G132" s="10"/>
       <c r="H132" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4313,27 +4318,27 @@
         <v>45031</v>
       </c>
       <c r="B133" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4342,27 +4347,27 @@
         <v>45032</v>
       </c>
       <c r="B134" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4371,27 +4376,27 @@
         <v>45033</v>
       </c>
       <c r="B135" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4400,27 +4405,27 @@
         <v>45034</v>
       </c>
       <c r="B136" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I136" s="10"/>
       <c r="J136" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4429,27 +4434,27 @@
         <v>45035</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I137" s="10"/>
       <c r="J137" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4458,27 +4463,27 @@
         <v>45036</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G138" s="10"/>
       <c r="H138" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I138" s="10"/>
       <c r="J138" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4487,27 +4492,27 @@
         <v>45037</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4516,27 +4521,27 @@
         <v>45038</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I140" s="10"/>
       <c r="J140" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4545,27 +4550,27 @@
         <v>45039</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I141" s="10"/>
       <c r="J141" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4574,27 +4579,27 @@
         <v>45040</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G142" s="10"/>
       <c r="H142" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4603,27 +4608,27 @@
         <v>45041</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G143" s="10"/>
       <c r="H143" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4632,27 +4637,27 @@
         <v>45042</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G144" s="10"/>
       <c r="H144" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I144" s="10"/>
       <c r="J144" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4661,27 +4666,27 @@
         <v>45043</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G145" s="10"/>
       <c r="H145" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I145" s="10"/>
       <c r="J145" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4690,27 +4695,27 @@
         <v>45044</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4719,27 +4724,27 @@
         <v>45045</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4748,27 +4753,27 @@
         <v>45046</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G148" s="10"/>
       <c r="H148" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4777,27 +4782,27 @@
         <v>45047</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I149" s="10"/>
       <c r="J149" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4806,27 +4811,27 @@
         <v>45048</v>
       </c>
       <c r="B150" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I150" s="10"/>
       <c r="J150" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4835,27 +4840,27 @@
         <v>45049</v>
       </c>
       <c r="B151" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G151" s="10"/>
       <c r="H151" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I151" s="10"/>
       <c r="J151" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4864,27 +4869,27 @@
         <v>45050</v>
       </c>
       <c r="B152" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I152" s="10"/>
       <c r="J152" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4893,27 +4898,27 @@
         <v>45051</v>
       </c>
       <c r="B153" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4922,27 +4927,27 @@
         <v>45052</v>
       </c>
       <c r="B154" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I154" s="10"/>
       <c r="J154" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4951,27 +4956,27 @@
         <v>45053</v>
       </c>
       <c r="B155" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4980,27 +4985,27 @@
         <v>45054</v>
       </c>
       <c r="B156" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I156" s="10"/>
       <c r="J156" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,27 +5014,27 @@
         <v>45055</v>
       </c>
       <c r="B157" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I157" s="10"/>
       <c r="J157" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5038,27 +5043,27 @@
         <v>45056</v>
       </c>
       <c r="B158" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I158" s="10"/>
       <c r="J158" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5067,27 +5072,27 @@
         <v>45057</v>
       </c>
       <c r="B159" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I159" s="10"/>
       <c r="J159" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5096,27 +5101,27 @@
         <v>45058</v>
       </c>
       <c r="B160" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I160" s="10"/>
       <c r="J160" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5125,27 +5130,27 @@
         <v>45059</v>
       </c>
       <c r="B161" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I161" s="10"/>
       <c r="J161" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5154,27 +5159,27 @@
         <v>45060</v>
       </c>
       <c r="B162" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I162" s="10"/>
       <c r="J162" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5183,33 +5188,33 @@
         <v>45061</v>
       </c>
       <c r="B163" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G163" s="10"/>
       <c r="H163" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I163" s="10"/>
       <c r="J163" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B163">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5218,6 +5223,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{EB244D9C-DAF3-4589-AF8C-774BBA6AF88B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{287CEA2B-36F8-489A-8A8B-51BB7CC1A8C3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5239,6 +5258,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>B2:B163</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{287CEA2B-36F8-489A-8A8B-51BB7CC1A8C3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
